--- a/Data/MHV1 Pooled Testing 1percent Experiment 2 Results_prep_decoded Retest Results and Ground Truth.xlsx
+++ b/Data/MHV1 Pooled Testing 1percent Experiment 2 Results_prep_decoded Retest Results and Ground Truth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vargalabmna134/Desktop/COVID:MHV1 Pooled Testing/MHV1 1% /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E51F6-0E6A-1644-B5C4-06587C280629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657BB8AE-842A-44CC-AD41-78E1A10BD454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="800" windowWidth="42700" windowHeight="22640" xr2:uid="{BE0797FF-F582-CE41-81BB-7C6997E8DDC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE0797FF-F582-CE41-81BB-7C6997E8DDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1235,46 +1244,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA77264-70DF-B347-B246-8B3A8D5D0E9A}">
   <dimension ref="A1:AR232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="X19" workbookViewId="0">
+      <selection activeCell="AF51" sqref="AF51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="26.875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.875" style="2" customWidth="1"/>
     <col min="20" max="20" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.83203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.875" style="2" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.1640625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="16.375" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.5" style="2" customWidth="1"/>
-    <col min="29" max="30" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="26.875" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="69" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1419,7 +1428,7 @@
       </c>
       <c r="AN2" s="3"/>
     </row>
-    <row r="3" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>3.499783992767334</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>18.013154983520508</v>
       </c>
       <c r="AK4" s="3">
-        <v>17.801101684570312</v>
+        <v>17.801101684570313</v>
       </c>
       <c r="AM4" s="3">
         <f t="shared" si="1"/>
@@ -1645,7 +1654,7 @@
         <v>3.576810359954834</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>3.4359216690063477</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>4</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>3.3055782318115234</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +1966,7 @@
         <v>3.4059028625488281</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
@@ -2043,7 +2052,7 @@
         <v>3.4044790267944336</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -2136,7 +2145,7 @@
         <v>3.768458366394043</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -2208,7 +2217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>3.4380793571472168</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -2277,7 +2286,7 @@
         <v>44</v>
       </c>
       <c r="L12" s="8">
-        <v>16.627944946289062</v>
+        <v>16.627944946289063</v>
       </c>
       <c r="M12" s="7">
         <v>47.722928883885103</v>
@@ -2325,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>23.902362823486328</v>
       </c>
@@ -2381,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>31.266963958740234</v>
       </c>
@@ -2437,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>15.453838348388672</v>
       </c>
@@ -2493,9 +2502,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>16.627944946289062</v>
+        <v>16.627944946289063</v>
       </c>
       <c r="B16" s="7">
         <v>47.722928883885103</v>
@@ -2556,7 +2565,7 @@
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>18.489538192749023</v>
       </c>
@@ -2619,7 +2628,7 @@
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>23.712251663208008</v>
       </c>
@@ -2672,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>23.771408081054688</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>16.606624603271499</v>
       </c>
@@ -2793,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>16.650806427001953</v>
       </c>
@@ -2855,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>15.906201362609863</v>
       </c>
@@ -2869,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="3">
-        <v>16.627944946289062</v>
+        <v>16.627944946289063</v>
       </c>
       <c r="O22" s="3">
         <v>16.615919113159201</v>
@@ -2917,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>34.305290222167969</v>
       </c>
@@ -2979,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>33.97564697265625</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>17.136844635009766</v>
       </c>
@@ -3091,7 +3100,7 @@
       <c r="AI25" s="3"/>
       <c r="AK25" s="3"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>16.06001091003418</v>
       </c>
@@ -3150,7 +3159,7 @@
       <c r="AI26" s="3"/>
       <c r="AK26" s="3"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>31.101327896118164</v>
       </c>
@@ -3207,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>32.099002838134766</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>33.797645568847656</v>
       </c>
@@ -3272,7 +3281,7 @@
         <v>5.1427346844876295E-4</v>
       </c>
       <c r="L29" s="8">
-        <v>16.627944946289062</v>
+        <v>16.627944946289063</v>
       </c>
       <c r="M29" s="7">
         <v>47.722928883885103</v>
@@ -3321,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>31.709447860717773</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>27.626361846923828</v>
       </c>
@@ -3421,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>27.062686920166016</v>
       </c>
@@ -3471,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>27.809391021728516</v>
       </c>
@@ -3524,7 +3533,7 @@
         <v>1.0300000000000001E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -3576,7 +3585,7 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -3637,7 +3646,7 @@
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -3770,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -3841,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -3914,7 +3923,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -3987,7 +3996,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -4031,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -4087,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L43" s="8">
         <v>23.902362823486328</v>
       </c>
@@ -4137,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L44" s="8">
         <v>31.266963958740234</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L45" s="8">
         <v>15.453838348388672</v>
       </c>
@@ -4240,9 +4249,9 @@
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L46" s="8">
-        <v>16.627944946289062</v>
+        <v>16.627944946289063</v>
       </c>
       <c r="M46" s="7">
         <v>47.722928883885103</v>
@@ -4292,7 +4301,7 @@
       <c r="AH46" s="3"/>
       <c r="AJ46" s="3"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L47" s="8">
         <v>18.489538192749023</v>
       </c>
@@ -4342,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="L48" s="8">
         <v>23.712251663208008</v>
       </c>
@@ -4392,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L49" s="8">
         <v>23.771408081054688</v>
       </c>
@@ -4442,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L50" s="8">
         <v>16.606624603271499</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L51" s="8">
         <v>16.650806427001953</v>
       </c>
@@ -4542,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -4592,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L53" s="1" t="s">
         <v>24</v>
       </c>
@@ -4643,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -4702,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>29</v>
       </c>
@@ -4761,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>30</v>
       </c>
@@ -4823,7 +4832,7 @@
         <v>268.54700000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>31</v>
       </c>
@@ -4882,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P58" s="2">
         <v>5</v>
       </c>
@@ -4926,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
@@ -4982,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L60" s="8">
         <v>23.902362823486328</v>
       </c>
@@ -5032,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L61" s="8">
         <v>31.266963958740234</v>
       </c>
@@ -5082,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L62" s="8">
         <v>15.453838348388672</v>
       </c>
@@ -5132,9 +5141,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L63" s="8">
-        <v>16.627944946289062</v>
+        <v>16.627944946289063</v>
       </c>
       <c r="M63" s="7">
         <v>47.722928883885103</v>
@@ -5176,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L64" s="8">
         <v>18.489538192749023</v>
       </c>
@@ -5220,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -5267,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L66" s="8">
         <v>23.771408081054688</v>
       </c>
@@ -5314,7 +5323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L67" s="8">
         <v>16.606624603271499</v>
       </c>
@@ -5355,7 +5364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L68" s="8">
         <v>16.650806427001953</v>
       </c>
@@ -5408,7 +5417,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L69" s="8">
         <v>15.906201362609863</v>
       </c>
@@ -5464,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L70" s="1" t="s">
         <v>25</v>
       </c>
@@ -5521,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L71" s="2" t="s">
         <v>10</v>
       </c>
@@ -5583,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L72" s="2" t="s">
         <v>12</v>
       </c>
@@ -5624,7 +5633,7 @@
         <v>33.797645568847656</v>
       </c>
       <c r="Z72" s="3">
-        <v>32.864822387695312</v>
+        <v>32.864822387695313</v>
       </c>
       <c r="AA72" s="2">
         <v>4</v>
@@ -5645,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L73" s="2" t="s">
         <v>14</v>
       </c>
@@ -5707,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L74" s="2" t="s">
         <v>16</v>
       </c>
@@ -5757,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="P75" s="2">
         <v>5</v>
       </c>
@@ -5801,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L76" s="7" t="s">
         <v>43</v>
       </c>
@@ -5851,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L77" s="8">
         <v>23.902362823486328</v>
       </c>
@@ -5901,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L78" s="8">
         <v>31.266963958740234</v>
       </c>
@@ -5951,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="L79" s="8">
         <v>15.453838348388672</v>
       </c>
@@ -6001,9 +6010,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L80" s="8">
-        <v>16.627944946289062</v>
+        <v>16.627944946289063</v>
       </c>
       <c r="M80" s="7">
         <v>47.722928883885103</v>
@@ -6051,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="12:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L81" s="8">
         <v>18.489538192749023</v>
       </c>
@@ -6104,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="12:33" x14ac:dyDescent="0.25">
       <c r="L82" s="8">
         <v>23.712251663208008</v>
       </c>
@@ -6154,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="12:33" x14ac:dyDescent="0.25">
       <c r="L83" s="8">
         <v>23.771408081054688</v>
       </c>
@@ -6204,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="12:33" x14ac:dyDescent="0.25">
       <c r="L84" s="8">
         <v>16.606624603271499</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="12:33" x14ac:dyDescent="0.25">
       <c r="L85" s="8">
         <v>16.650806427001953</v>
       </c>
@@ -6305,7 +6314,7 @@
       </c>
       <c r="AG85" s="11"/>
     </row>
-    <row r="86" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="12:33" x14ac:dyDescent="0.25">
       <c r="L86" s="8">
         <v>15.906201362609863</v>
       </c>
@@ -6355,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="87" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W87" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -6381,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="88" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W88" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -6407,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="89" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W89" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -6433,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W90" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -6459,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="91" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W91" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -6485,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="92" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W92" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -6511,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W93" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -6537,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W94" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -6563,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="12:33" x14ac:dyDescent="0.25">
       <c r="W95" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -6589,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="96" spans="12:33" x14ac:dyDescent="0.25">
       <c r="AA96" s="2">
         <v>28</v>
       </c>
@@ -6609,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="97" spans="23:34" x14ac:dyDescent="0.25">
       <c r="AA97" s="2">
         <v>29</v>
       </c>
@@ -6629,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="98" spans="23:34" x14ac:dyDescent="0.25">
       <c r="AA98" s="2">
         <v>30</v>
       </c>
@@ -6649,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="23:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="23:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA99" s="2">
         <v>31</v>
       </c>
@@ -6669,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="23:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="23:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA100" s="2" t="s">
         <v>46</v>
       </c>
@@ -6692,7 +6701,7 @@
         <v>31.564</v>
       </c>
     </row>
-    <row r="101" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W101" s="1" t="s">
         <v>24</v>
       </c>
@@ -6719,7 +6728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="102" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W102" s="2" t="s">
         <v>10</v>
       </c>
@@ -6751,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="103" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W103" s="2" t="s">
         <v>12</v>
       </c>
@@ -6783,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="104" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W104" s="2" t="s">
         <v>14</v>
       </c>
@@ -6815,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="105" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W105" s="2" t="s">
         <v>16</v>
       </c>
@@ -6847,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W106" s="2" t="s">
         <v>18</v>
       </c>
@@ -6879,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="23:34" x14ac:dyDescent="0.25">
       <c r="AA107" s="2">
         <v>6</v>
       </c>
@@ -6899,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="108" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W108" s="2" t="s">
         <v>45</v>
       </c>
@@ -6925,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="109" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W109" s="8">
         <v>34.305290222167969</v>
       </c>
@@ -6951,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="110" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W110" s="8">
         <v>33.97564697265625</v>
       </c>
@@ -6977,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W111" s="8">
         <v>17.136844635009766</v>
       </c>
@@ -7003,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="23:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="23:34" x14ac:dyDescent="0.25">
       <c r="W112" s="8">
         <v>16.06001091003418</v>
       </c>
@@ -7029,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="113" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W113" s="8">
         <v>31.101327896118164</v>
       </c>
@@ -7055,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="114" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W114" s="8">
         <v>32.099002838134766</v>
       </c>
@@ -7081,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="115" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W115" s="8">
         <v>33.797645568847656</v>
       </c>
@@ -7107,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="116" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W116" s="8">
         <v>31.709447860717773</v>
       </c>
@@ -7133,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="117" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W117" s="8">
         <v>27.626361846923828</v>
       </c>
@@ -7159,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="118" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W118" s="8">
         <v>27.062686920166016</v>
       </c>
@@ -7185,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="119" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W119" s="8">
         <v>27.809391021728516</v>
       </c>
@@ -7211,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="120" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W120" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -7237,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="121" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W121" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -7263,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="122" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W122" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -7289,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="123" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W123" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -7315,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="124" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W124" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -7341,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="125" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W125" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -7367,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="126" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W126" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -7393,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="127" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W127" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -7419,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="128" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W128" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -7445,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="23:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA129" s="2">
         <v>28</v>
       </c>
@@ -7465,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="23:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA130" s="2">
         <v>29</v>
       </c>
@@ -7488,7 +7497,7 @@
         <v>0.13013687998371631</v>
       </c>
     </row>
-    <row r="131" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="131" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA131" s="2">
         <v>30</v>
       </c>
@@ -7508,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="132" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA132" s="2">
         <v>31</v>
       </c>
@@ -7528,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="133" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA133" s="2" t="s">
         <v>46</v>
       </c>
@@ -7548,7 +7557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="134" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W134" s="1" t="s">
         <v>25</v>
       </c>
@@ -7575,7 +7584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="135" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W135" s="2" t="s">
         <v>10</v>
       </c>
@@ -7607,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="136" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W136" s="2" t="s">
         <v>12</v>
       </c>
@@ -7639,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="137" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W137" s="2" t="s">
         <v>14</v>
       </c>
@@ -7671,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="138" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W138" s="2" t="s">
         <v>16</v>
       </c>
@@ -7703,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="139" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W139" s="2" t="s">
         <v>18</v>
       </c>
@@ -7735,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="140" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA140" s="2">
         <v>6</v>
       </c>
@@ -7755,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="141" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W141" s="2" t="s">
         <v>45</v>
       </c>
@@ -7781,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="142" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W142" s="8">
         <v>34.305290222167969</v>
       </c>
@@ -7807,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="143" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W143" s="8">
         <v>33.97564697265625</v>
       </c>
@@ -7833,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="144" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W144" s="8">
         <v>17.136844635009766</v>
       </c>
@@ -7859,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W145" s="8">
         <v>16.06001091003418</v>
       </c>
@@ -7885,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W146" s="8">
         <v>31.101327896118164</v>
       </c>
@@ -7911,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W147" s="8">
         <v>32.099002838134766</v>
       </c>
@@ -7937,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W148" s="8">
         <v>33.797645568847656</v>
       </c>
@@ -7963,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W149" s="8">
         <v>31.709447860717773</v>
       </c>
@@ -7989,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W150" s="8">
         <v>27.626361846923828</v>
       </c>
@@ -8015,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W151" s="8">
         <v>27.062686920166016</v>
       </c>
@@ -8041,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W152" s="8">
         <v>27.809391021728516</v>
       </c>
@@ -8067,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W153" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -8093,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W154" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -8119,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="23:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="23:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W155" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -8145,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="23:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="23:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W156" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -8174,7 +8183,7 @@
         <v>0.26911669740175936</v>
       </c>
     </row>
-    <row r="157" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W157" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -8201,7 +8210,7 @@
       </c>
       <c r="AJ157" s="1"/>
     </row>
-    <row r="158" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W158" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -8227,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W159" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -8253,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="23:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="23:36" x14ac:dyDescent="0.25">
       <c r="W160" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -8279,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="161" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W161" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -8305,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="162" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA162" s="2">
         <v>28</v>
       </c>
@@ -8325,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="163" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA163" s="2">
         <v>29</v>
       </c>
@@ -8345,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="164" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA164" s="2">
         <v>30</v>
       </c>
@@ -8365,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="165" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA165" s="2">
         <v>31</v>
       </c>
@@ -8385,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="166" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA166" s="2" t="s">
         <v>46</v>
       </c>
@@ -8405,7 +8414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="167" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W167" s="1" t="s">
         <v>26</v>
       </c>
@@ -8432,7 +8441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="168" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W168" s="2" t="s">
         <v>10</v>
       </c>
@@ -8464,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="169" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W169" s="2" t="s">
         <v>12</v>
       </c>
@@ -8496,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="170" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W170" s="2" t="s">
         <v>14</v>
       </c>
@@ -8528,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="171" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W171" s="2" t="s">
         <v>16</v>
       </c>
@@ -8560,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="172" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W172" s="2" t="s">
         <v>18</v>
       </c>
@@ -8592,7 +8601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="173" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA173" s="2">
         <v>6</v>
       </c>
@@ -8612,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="174" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W174" s="2" t="s">
         <v>45</v>
       </c>
@@ -8638,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="175" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W175" s="8">
         <v>34.305290222167969</v>
       </c>
@@ -8664,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="176" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W176" s="8">
         <v>33.97564697265625</v>
       </c>
@@ -8690,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="177" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W177" s="8">
         <v>17.136844635009766</v>
       </c>
@@ -8716,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="178" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W178" s="8">
         <v>16.06001091003418</v>
       </c>
@@ -8742,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="179" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W179" s="8">
         <v>31.101327896118164</v>
       </c>
@@ -8768,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="180" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W180" s="8">
         <v>32.099002838134766</v>
       </c>
@@ -8794,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="181" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W181" s="8">
         <v>33.797645568847656</v>
       </c>
@@ -8820,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="23:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W182" s="8">
         <v>31.709447860717773</v>
       </c>
@@ -8846,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="23:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W183" s="8">
         <v>27.626361846923828</v>
       </c>
@@ -8875,7 +8884,7 @@
         <v>17.580078982366985</v>
       </c>
     </row>
-    <row r="184" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="184" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W184" s="8">
         <v>27.062686920166016</v>
       </c>
@@ -8901,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="185" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W185" s="8">
         <v>27.809391021728516</v>
       </c>
@@ -8927,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="186" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W186" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -8953,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="187" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W187" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -8979,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="188" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W188" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -9005,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="189" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W189" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -9031,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="190" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W190" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -9057,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="191" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W191" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -9083,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="192" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W192" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -9109,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="193" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W193" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -9135,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="194" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W194" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -9161,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="195" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA195" s="2">
         <v>28</v>
       </c>
@@ -9181,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="196" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA196" s="2">
         <v>29</v>
       </c>
@@ -9201,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="197" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA197" s="2">
         <v>30</v>
       </c>
@@ -9221,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="198" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA198" s="2">
         <v>31</v>
       </c>
@@ -9241,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="199" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA199" s="2" t="s">
         <v>46</v>
       </c>
@@ -9261,7 +9270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="200" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W200" s="1" t="s">
         <v>27</v>
       </c>
@@ -9288,7 +9297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="201" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W201" s="2" t="s">
         <v>10</v>
       </c>
@@ -9320,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="202" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W202" s="2" t="s">
         <v>12</v>
       </c>
@@ -9352,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="203" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W203" s="2" t="s">
         <v>14</v>
       </c>
@@ -9384,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="204" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W204" s="2" t="s">
         <v>16</v>
       </c>
@@ -9416,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="23:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W205" s="2" t="s">
         <v>18</v>
       </c>
@@ -9448,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="23:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="23:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA206" s="2">
         <v>6</v>
       </c>
@@ -9471,7 +9480,7 @@
         <v>102.15628878175363</v>
       </c>
     </row>
-    <row r="207" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="207" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W207" s="2" t="s">
         <v>45</v>
       </c>
@@ -9497,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="208" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W208" s="8">
         <v>34.305290222167969</v>
       </c>
@@ -9523,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="209" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W209" s="8">
         <v>33.97564697265625</v>
       </c>
@@ -9549,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="210" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W210" s="8">
         <v>17.136844635009766</v>
       </c>
@@ -9575,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="211" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W211" s="8">
         <v>16.06001091003418</v>
       </c>
@@ -9601,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="212" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W212" s="8">
         <v>31.101327896118164</v>
       </c>
@@ -9627,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="213" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W213" s="8">
         <v>32.099002838134766</v>
       </c>
@@ -9653,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="214" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W214" s="8">
         <v>33.797645568847656</v>
       </c>
@@ -9679,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="215" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W215" s="8">
         <v>31.709447860717773</v>
       </c>
@@ -9705,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="216" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W216" s="8">
         <v>27.626361846923828</v>
       </c>
@@ -9731,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="217" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W217" s="8">
         <v>27.062686920166016</v>
       </c>
@@ -9757,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="218" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W218" s="8">
         <v>27.809391021728516</v>
       </c>
@@ -9783,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="219" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W219" s="8">
         <v>26.022665023803711</v>
       </c>
@@ -9809,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="220" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W220" s="8">
         <v>26.980998992919922</v>
       </c>
@@ -9835,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="221" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W221" s="8">
         <v>20.077795028686523</v>
       </c>
@@ -9861,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="222" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W222" s="8">
         <v>20.014951705932617</v>
       </c>
@@ -9887,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="223" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W223" s="8">
         <v>19.730842590332031</v>
       </c>
@@ -9913,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="23:32" x14ac:dyDescent="0.2">
+    <row r="224" spans="23:32" x14ac:dyDescent="0.25">
       <c r="W224" s="8">
         <v>20.052629470825195</v>
       </c>
@@ -9939,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="225" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W225" s="8">
         <v>21.552143096923828</v>
       </c>
@@ -9965,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="226" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W226" s="8">
         <v>18.523214340209961</v>
       </c>
@@ -9991,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="227" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W227" s="8">
         <v>18.389493942260742</v>
       </c>
@@ -10017,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="228" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA228" s="2">
         <v>28</v>
       </c>
@@ -10037,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="229" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA229" s="2">
         <v>29</v>
       </c>
@@ -10057,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="230" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA230" s="2">
         <v>30</v>
       </c>
@@ -10077,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="231" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA231" s="2">
         <v>31</v>
       </c>
@@ -10097,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="23:33" x14ac:dyDescent="0.2">
+    <row r="232" spans="23:33" x14ac:dyDescent="0.25">
       <c r="AA232" s="2" t="s">
         <v>46</v>
       </c>
